--- a/DAILY_STATUS_REPORT.xlsx
+++ b/DAILY_STATUS_REPORT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>DATE</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t xml:space="preserve">read username and password and customername and project names from excel sheet </t>
+  </si>
+  <si>
+    <t>5/6/sept-2020</t>
+  </si>
+  <si>
+    <t>gone through soap rest and webservices,worked on postman</t>
   </si>
 </sst>
 </file>
@@ -436,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,9 +579,25 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/DAILY_STATUS_REPORT.xlsx
+++ b/DAILY_STATUS_REPORT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>DATE</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>gone through soap rest and webservices,worked on postman</t>
+  </si>
+  <si>
+    <t>8-seo-2020</t>
+  </si>
+  <si>
+    <t>worked on postman,variable creation and worked get,post,put</t>
   </si>
 </sst>
 </file>
@@ -442,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,6 +604,14 @@
       </c>
       <c r="B19" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/DAILY_STATUS_REPORT.xlsx
+++ b/DAILY_STATUS_REPORT.xlsx
@@ -117,10 +117,10 @@
     <t>gone through soap rest and webservices,worked on postman</t>
   </si>
   <si>
-    <t>8-seo-2020</t>
-  </si>
-  <si>
     <t>worked on postman,variable creation and worked get,post,put</t>
+  </si>
+  <si>
+    <t>worked on few concepts of api</t>
   </si>
 </sst>
 </file>
@@ -164,10 +164,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,10 +608,18 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44083</v>
+      </c>
+      <c r="B21" t="s">
         <v>31</v>
       </c>
     </row>

--- a/DAILY_STATUS_REPORT.xlsx
+++ b/DAILY_STATUS_REPORT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>DATE</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>worked on few concepts of api</t>
+  </si>
+  <si>
+    <t>working on api postman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">had discussion with harsha sir regarding api postman </t>
   </si>
 </sst>
 </file>
@@ -449,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,6 +627,19 @@
       </c>
       <c r="B21" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/DAILY_STATUS_REPORT.xlsx
+++ b/DAILY_STATUS_REPORT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>DATE</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t xml:space="preserve">had discussion with harsha sir regarding api postman </t>
+  </si>
+  <si>
+    <t>worked on postman,discussion with harsha sir regarding update</t>
+  </si>
+  <si>
+    <t>12/13/-sept-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gone though selenium grid concept </t>
   </si>
 </sst>
 </file>
@@ -455,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,6 +649,30 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/DAILY_STATUS_REPORT.xlsx
+++ b/DAILY_STATUS_REPORT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>DATE</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t xml:space="preserve">gone though selenium grid concept </t>
+  </si>
+  <si>
+    <t>learnt crud operations and installed neccesary packages</t>
+  </si>
+  <si>
+    <t>code walk through by harsha sir in the evning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  resourse shared for python api tesing and  KT on same by harsha sir</t>
   </si>
 </sst>
 </file>
@@ -464,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,6 +682,24 @@
       </c>
       <c r="B26" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/DAILY_STATUS_REPORT.xlsx
+++ b/DAILY_STATUS_REPORT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>DATE</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t xml:space="preserve">  resourse shared for python api tesing and  KT on same by harsha sir</t>
+  </si>
+  <si>
+    <t>got the api testing for python3 and pytest  resourse from harsha sir, and had some kt session on the topic</t>
+  </si>
+  <si>
+    <t>gone through basic setups of application</t>
   </si>
 </sst>
 </file>
@@ -473,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,6 +706,19 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/DAILY_STATUS_REPORT.xlsx
+++ b/DAILY_STATUS_REPORT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>DATE</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>gone through basic setups of application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done the installation of required applications and got to know the uses of  diffarent applications  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">had sometime kt session with harsha sir </t>
   </si>
 </sst>
 </file>
@@ -479,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,6 +725,19 @@
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44091</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/DAILY_STATUS_REPORT.xlsx
+++ b/DAILY_STATUS_REPORT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>DATE</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve">had sometime kt session with harsha sir </t>
+  </si>
+  <si>
+    <t>working on diffarent tools ,creating virtual environments for python and exposer on wordpress</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,9 +738,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/DAILY_STATUS_REPORT.xlsx
+++ b/DAILY_STATUS_REPORT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>DATE</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>working on diffarent tools ,creating virtual environments for python and exposer on wordpress</t>
+  </si>
+  <si>
+    <t>19/20-sept-2020</t>
+  </si>
+  <si>
+    <t>worked on appium,learnt th madatory tings required for appium installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked on adding disired capabalities,adding those and setting paths of android studio </t>
   </si>
 </sst>
 </file>
@@ -488,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,6 +760,30 @@
         <v>44</v>
       </c>
     </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -762,7 +795,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DAILY_STATUS_REPORT.xlsx
+++ b/DAILY_STATUS_REPORT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>DATE</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t xml:space="preserve">worked on adding disired capabalities,adding those and setting paths of android studio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">end of the had conversation with harsha sir rgarding the required tools required for appium and api </t>
+  </si>
+  <si>
+    <t xml:space="preserve">had meeting with harsha sir,and worked  on concepts required for byju's interview </t>
   </si>
 </sst>
 </file>
@@ -497,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,6 +788,19 @@
       </c>
       <c r="B37" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/DAILY_STATUS_REPORT.xlsx
+++ b/DAILY_STATUS_REPORT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>DATE</t>
   </si>
@@ -171,10 +171,16 @@
     <t xml:space="preserve">worked on adding disired capabalities,adding those and setting paths of android studio </t>
   </si>
   <si>
-    <t xml:space="preserve">end of the had conversation with harsha sir rgarding the required tools required for appium and api </t>
-  </si>
-  <si>
     <t xml:space="preserve">had meeting with harsha sir,and worked  on concepts required for byju's interview </t>
+  </si>
+  <si>
+    <t xml:space="preserve">end of the day had conversation with harsha sir rgarding the required tools required for appium and api </t>
+  </si>
+  <si>
+    <t>working on appium,desired capabilities,launching app,had a call with hasrha sir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked on appium locators,waits in appium ,and related concepts of appium and call with harsha sir regarding the updates </t>
   </si>
 </sst>
 </file>
@@ -503,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,12 +801,28 @@
         <v>44097</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/DAILY_STATUS_REPORT.xlsx
+++ b/DAILY_STATUS_REPORT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>DATE</t>
   </si>
@@ -165,22 +165,34 @@
     <t>19/20-sept-2020</t>
   </si>
   <si>
-    <t>worked on appium,learnt th madatory tings required for appium installation</t>
-  </si>
-  <si>
     <t xml:space="preserve">worked on adding disired capabalities,adding those and setting paths of android studio </t>
   </si>
   <si>
     <t xml:space="preserve">had meeting with harsha sir,and worked  on concepts required for byju's interview </t>
   </si>
   <si>
-    <t xml:space="preserve">end of the day had conversation with harsha sir rgarding the required tools required for appium and api </t>
-  </si>
-  <si>
     <t>working on appium,desired capabilities,launching app,had a call with hasrha sir</t>
   </si>
   <si>
     <t xml:space="preserve">worked on appium locators,waits in appium ,and related concepts of appium and call with harsha sir regarding the updates </t>
+  </si>
+  <si>
+    <t>worked on appium,learnt the madatory things required for appium installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end of the day had conversation with harsha sir regarding the required tools required for appium and api </t>
+  </si>
+  <si>
+    <t>26/27-SEPT-2020</t>
+  </si>
+  <si>
+    <t>WEEKOFF</t>
+  </si>
+  <si>
+    <t>connected and launched real device,and had KT session with harsha sir and got the flow how to inspect in appium and working of ide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connected with emulator and lauched in appium and worked on the json representation </t>
   </si>
 </sst>
 </file>
@@ -509,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +797,7 @@
         <v>44095</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -793,7 +805,7 @@
         <v>44096</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -801,12 +813,12 @@
         <v>44097</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,7 +826,7 @@
         <v>44098</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,7 +834,31 @@
         <v>44099</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/DAILY_STATUS_REPORT.xlsx
+++ b/DAILY_STATUS_REPORT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>DATE</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t xml:space="preserve">connected with emulator and lauched in appium and worked on the json representation </t>
+  </si>
+  <si>
+    <t>30-sept-20202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked on actions,waits,locators,dropdown concepts in emulator </t>
   </si>
 </sst>
 </file>
@@ -521,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,6 +865,14 @@
       </c>
       <c r="B44" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
